--- a/DataFeeds/GDP_Steo.xlsx
+++ b/DataFeeds/GDP_Steo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F0414F-6CAF-471F-B77E-A53C26EAAD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E4EC2D-1527-4FC9-A1AC-A13CE858E857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2445" windowWidth="24240" windowHeight="13140" xr2:uid="{60591211-605E-4C82-B8EA-EBB191B5B3B6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14400" windowHeight="5985" xr2:uid="{60591211-605E-4C82-B8EA-EBB191B5B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -173,6 +173,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1972732-7DD0-4143-B489-00939F42BD6C}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B73"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -519,8 +520,9 @@
       <c r="C2" s="2">
         <v>18436.261999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -531,7 +533,7 @@
         <v>18436.261999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -542,7 +544,7 @@
         <v>18436.261999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -553,7 +555,7 @@
         <v>18590.004000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -564,7 +566,7 @@
         <v>18590.004000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -575,7 +577,7 @@
         <v>18590.004000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -586,7 +588,7 @@
         <v>18679.598999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -597,7 +599,7 @@
         <v>18679.598999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -608,7 +610,7 @@
         <v>18679.598999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -619,7 +621,7 @@
         <v>18721.280999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -630,7 +632,7 @@
         <v>18721.280999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -641,7 +643,7 @@
         <v>18721.280999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2019</v>
       </c>
@@ -652,7 +654,7 @@
         <v>18833.195</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2019</v>
       </c>
@@ -663,7 +665,7 @@
         <v>18833.195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2019</v>
       </c>

--- a/DataFeeds/GDP_Steo.xlsx
+++ b/DataFeeds/GDP_Steo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E4EC2D-1527-4FC9-A1AC-A13CE858E857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80553C29-3A61-40DB-8139-2D112B41785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14400" windowHeight="5985" xr2:uid="{60591211-605E-4C82-B8EA-EBB191B5B3B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{60591211-605E-4C82-B8EA-EBB191B5B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="15">
   <si>
     <t>GDPQXUS</t>
   </si>
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,15 +491,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1972732-7DD0-4143-B489-00939F42BD6C}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:C193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.7265625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -510,800 +513,2120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>18436.261999999999</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>14706.538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>18436.261999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>14706.538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>18436.261999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>14706.538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>18590.004000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>14865.700999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
-        <v>18590.004000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>14865.700999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
-        <v>18590.004000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>14865.700999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
-        <v>18679.598999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>14898.999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
-        <v>18679.598999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>14898.999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2">
-        <v>18679.598999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>14898.999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
-        <v>18721.280999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>14608.208000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
-        <v>18721.280999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>14608.208000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2">
-        <v>18721.280999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2019</v>
+      <c r="C13">
+        <v>14608.208000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2009</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
-        <v>18833.195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>2019</v>
+      <c r="C14">
+        <v>14430.901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2009</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2">
-        <v>18833.195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>2019</v>
+      <c r="C15">
+        <v>14430.901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2009</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2">
-        <v>18833.195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>2019</v>
+      <c r="C16">
+        <v>14430.901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2009</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
-        <v>18982.527999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>2019</v>
+      <c r="C17">
+        <v>14381.236000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2009</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
-        <v>18982.527999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>2019</v>
+      <c r="C18">
+        <v>14381.236000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2009</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2">
-        <v>18982.527999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2019</v>
+      <c r="C19">
+        <v>14381.236000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2009</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
-        <v>19112.652999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>2019</v>
+      <c r="C20">
+        <v>14448.882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2009</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2">
-        <v>19112.652999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>2019</v>
+      <c r="C21">
+        <v>14448.882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2009</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2">
-        <v>19112.652999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>2019</v>
+      <c r="C22">
+        <v>14448.882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2009</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2">
-        <v>19202.310000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2019</v>
+      <c r="C23">
+        <v>14651.248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2009</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2">
-        <v>19202.310000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>2019</v>
+      <c r="C24">
+        <v>14651.248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2009</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="2">
-        <v>19202.310000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2020</v>
+      <c r="C25">
+        <v>14651.248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2010</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2">
-        <v>18951.991999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>2020</v>
+      <c r="C26">
+        <v>14764.611000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2010</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2">
-        <v>18951.991999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>2020</v>
+      <c r="C27">
+        <v>14764.611000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2010</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
-        <v>18951.991999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>2020</v>
+      <c r="C28">
+        <v>14764.611000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2010</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2">
-        <v>17258.205000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>2020</v>
+      <c r="C29">
+        <v>14980.192999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2010</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2">
-        <v>17258.205000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>2020</v>
+      <c r="C30">
+        <v>14980.192999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2010</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="2">
-        <v>17258.205000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>2020</v>
+      <c r="C31">
+        <v>14980.192999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2010</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2">
-        <v>18560.774000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>2020</v>
+      <c r="C32">
+        <v>15141.605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2010</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2">
-        <v>18560.774000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>2020</v>
+      <c r="C33">
+        <v>15141.605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2010</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2">
-        <v>18560.774000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>2020</v>
+      <c r="C34">
+        <v>15141.605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2010</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="2">
-        <v>18767.777999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>2020</v>
+      <c r="C35">
+        <v>15309.471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2010</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="2">
-        <v>18767.777999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>2020</v>
+      <c r="C36">
+        <v>15309.471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2010</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="2">
-        <v>18767.777999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>2021</v>
+      <c r="C37">
+        <v>15309.471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2011</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="2">
-        <v>19055.654999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>2021</v>
+      <c r="C38">
+        <v>15351.444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2011</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="2">
-        <v>19055.654999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>2021</v>
+      <c r="C39">
+        <v>15351.444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2011</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2">
-        <v>19055.654999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>2021</v>
+      <c r="C40">
+        <v>15351.444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2011</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="2">
-        <v>19368.310000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>2021</v>
+      <c r="C41">
+        <v>15557.535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2011</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="2">
-        <v>19368.310000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>2021</v>
+      <c r="C42">
+        <v>15557.535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2011</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="2">
-        <v>19368.310000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>2021</v>
+      <c r="C43">
+        <v>15557.535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2011</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="2">
-        <v>19478.893</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>2021</v>
+      <c r="C44">
+        <v>15647.681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2011</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="2">
-        <v>19478.893</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>2021</v>
+      <c r="C45">
+        <v>15647.681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2011</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="2">
-        <v>19478.893</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>2021</v>
+      <c r="C46">
+        <v>15647.681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2011</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="2">
-        <v>19806.29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>2021</v>
+      <c r="C47">
+        <v>15842.267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2011</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="2">
-        <v>19806.29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>2021</v>
+      <c r="C48">
+        <v>15842.267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2011</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="2">
-        <v>19806.29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>2022</v>
+      <c r="C49">
+        <v>15842.267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2012</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="2">
-        <v>19727.918000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>2022</v>
+      <c r="C50">
+        <v>16068.824000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2012</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="2">
-        <v>19727.918000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>2022</v>
+      <c r="C51">
+        <v>16068.824000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2012</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="2">
-        <v>19727.918000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>2022</v>
+      <c r="C52">
+        <v>16068.824000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2012</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="2">
-        <v>19626.701110999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>2022</v>
+      <c r="C53">
+        <v>16207.13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2012</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="2">
-        <v>19609.540443999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>2022</v>
+      <c r="C54">
+        <v>16207.13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2012</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="2">
-        <v>19612.448444000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>2022</v>
+      <c r="C55">
+        <v>16207.13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2012</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="2">
-        <v>19653.270741</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>2022</v>
+      <c r="C56">
+        <v>16319.54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2012</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="3">
-        <v>19682.93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>2022</v>
+      <c r="C57">
+        <v>16319.54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2012</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="3">
-        <v>19719.28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>2022</v>
+      <c r="C58">
+        <v>16319.54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2012</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="3">
-        <v>19776.72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>2022</v>
+      <c r="C59">
+        <v>16420.385999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2012</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="3">
-        <v>19815.62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>2022</v>
+      <c r="C60">
+        <v>16420.385999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2012</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="3">
-        <v>19850.41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>2023</v>
+      <c r="C61">
+        <v>16420.385999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2013</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="3">
-        <v>19873.04</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>2023</v>
+      <c r="C62">
+        <v>16629.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2013</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="3">
-        <v>19905.59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>2023</v>
+      <c r="C63">
+        <v>16629.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2013</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="3">
-        <v>19940.03</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>2023</v>
+      <c r="C64">
+        <v>16629.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2013</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="3">
-        <v>19978.14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>2023</v>
+      <c r="C65">
+        <v>16699.550999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2013</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="3">
-        <v>20015.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>2023</v>
+      <c r="C66">
+        <v>16699.550999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2013</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="3">
-        <v>20052.52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>2023</v>
+      <c r="C67">
+        <v>16699.550999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2013</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="3">
-        <v>20091.189999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>2023</v>
+      <c r="C68">
+        <v>16911.067999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2013</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="3">
-        <v>20129.330000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>2023</v>
+      <c r="C69">
+        <v>16911.067999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2013</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="3">
-        <v>20167.560000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>2023</v>
+      <c r="C70">
+        <v>16911.067999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2013</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="3">
-        <v>20207.45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>2023</v>
+      <c r="C71">
+        <v>17133.114000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2013</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="3">
-        <v>20244.71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>2023</v>
+      <c r="C72">
+        <v>17133.114000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2013</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
+        <v>17133.114000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2014</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>17144.280999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2014</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>17144.280999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2014</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>17144.280999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2014</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>17462.703000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2014</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>17462.703000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2014</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>17462.703000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2014</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>17743.226999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2014</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>17743.226999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2014</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>17743.226999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2014</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>17852.54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2014</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>17852.54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2014</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>17852.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2015</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>17991.348000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2015</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>17991.348000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2015</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>17991.348000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2015</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>18193.706999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2015</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>18193.706999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2015</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>18193.706999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2015</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>18306.96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2015</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>18306.96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2015</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>18306.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2015</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>18332.079000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2015</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>18332.079000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2015</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>18332.079000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2016</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>18425.306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2016</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>18425.306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2016</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>18425.306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2016</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>18611.616999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2016</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>18611.616999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2016</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>18611.616999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2016</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>18775.458999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2016</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>18775.458999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2016</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>18775.458999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2016</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>18968.041000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2016</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>18968.041000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2016</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>18968.041000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2017</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>19153.912</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2017</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>19153.912</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2017</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>19153.912</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2017</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>19322.919999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2017</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>19322.919999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2017</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>19322.919999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2017</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>19558.692999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2017</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>19558.692999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2017</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>19558.692999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2017</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>19882.965</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2017</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>19882.965</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2017</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>19882.965</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2018</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="2">
+        <v>18436.261999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2018</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2">
+        <v>18436.261999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2018</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2">
+        <v>18436.261999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2018</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="2">
+        <v>18590.004000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2018</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="2">
+        <v>18590.004000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2018</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="2">
+        <v>18590.004000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2018</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2">
+        <v>18679.598999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2018</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="2">
+        <v>18679.598999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2018</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="2">
+        <v>18679.598999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2018</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2">
+        <v>18721.280999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2018</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="2">
+        <v>18721.280999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2018</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="2">
+        <v>18721.280999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2">
+        <v>18833.195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2">
+        <v>18833.195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2">
+        <v>18833.195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="2">
+        <v>18982.527999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="2">
+        <v>18982.527999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="2">
+        <v>18982.527999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="2">
+        <v>19112.652999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="2">
+        <v>19112.652999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="2">
+        <v>19112.652999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="2">
+        <v>19202.310000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="2">
+        <v>19202.310000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="2">
+        <v>19202.310000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="2">
+        <v>18951.991999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="2">
+        <v>18951.991999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="2">
+        <v>18951.991999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="2">
+        <v>17258.205000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="2">
+        <v>17258.205000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="2">
+        <v>17258.205000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="2">
+        <v>18560.774000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="2">
+        <v>18560.774000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="2">
+        <v>18560.774000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="2">
+        <v>18767.777999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="2">
+        <v>18767.777999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="2">
+        <v>18767.777999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="2">
+        <v>19055.654999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="2">
+        <v>19055.654999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2">
+        <v>19055.654999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="2">
+        <v>19368.310000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="2">
+        <v>19368.310000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="2">
+        <v>19368.310000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="2">
+        <v>19478.893</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="2">
+        <v>19478.893</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="2">
+        <v>19478.893</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="2">
+        <v>19806.29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="2">
+        <v>19806.29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="2">
+        <v>19806.29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="2">
+        <v>19727.918000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="2">
+        <v>19727.918000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="2">
+        <v>19727.918000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="2">
+        <v>19626.701110999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="2">
+        <v>19609.540443999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="2">
+        <v>19612.448444000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="2">
+        <v>19653.270741</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="3">
+        <v>19682.93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="3">
+        <v>19719.28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="3">
+        <v>19776.72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="3">
+        <v>19815.62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="3">
+        <v>19850.41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="3">
+        <v>19873.04</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="3">
+        <v>19905.59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="3">
+        <v>19940.03</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="3">
+        <v>19978.14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="3">
+        <v>20015.05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="3">
+        <v>20052.52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="3">
+        <v>20091.189999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="3">
+        <v>20129.330000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="3">
+        <v>20167.560000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="3">
+        <v>20207.45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="3">
+        <v>20244.71</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="3">
         <v>20280.900000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataFeeds/GDP_Steo.xlsx
+++ b/DataFeeds/GDP_Steo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80553C29-3A61-40DB-8139-2D112B41785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339FD858-16EA-47AC-88B5-BBAB6134E535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{60591211-605E-4C82-B8EA-EBB191B5B3B6}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +106,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -161,13 +154,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,13 +483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1972732-7DD0-4143-B489-00939F42BD6C}">
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C193"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="8.7265625" style="5"/>
+    <col min="5" max="5" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -517,7 +507,7 @@
       <c r="A2">
         <v>2008</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -528,7 +518,7 @@
       <c r="A3">
         <v>2008</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -539,7 +529,7 @@
       <c r="A4">
         <v>2008</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -550,7 +540,7 @@
       <c r="A5">
         <v>2008</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -561,7 +551,7 @@
       <c r="A6">
         <v>2008</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -572,7 +562,7 @@
       <c r="A7">
         <v>2008</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -583,7 +573,7 @@
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -594,7 +584,7 @@
       <c r="A9">
         <v>2008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -605,7 +595,7 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -616,7 +606,7 @@
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11">
@@ -627,7 +617,7 @@
       <c r="A12">
         <v>2008</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12">
@@ -638,7 +628,7 @@
       <c r="A13">
         <v>2008</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13">
@@ -649,7 +639,7 @@
       <c r="A14">
         <v>2009</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C14">
@@ -660,7 +650,7 @@
       <c r="A15">
         <v>2009</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15">
@@ -671,7 +661,7 @@
       <c r="A16">
         <v>2009</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16">
@@ -682,7 +672,7 @@
       <c r="A17">
         <v>2009</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17">
@@ -693,7 +683,7 @@
       <c r="A18">
         <v>2009</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18">
@@ -704,7 +694,7 @@
       <c r="A19">
         <v>2009</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C19">
@@ -715,7 +705,7 @@
       <c r="A20">
         <v>2009</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20">
@@ -726,7 +716,7 @@
       <c r="A21">
         <v>2009</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C21">
@@ -737,7 +727,7 @@
       <c r="A22">
         <v>2009</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22">
@@ -748,7 +738,7 @@
       <c r="A23">
         <v>2009</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23">
@@ -759,7 +749,7 @@
       <c r="A24">
         <v>2009</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24">
@@ -770,7 +760,7 @@
       <c r="A25">
         <v>2009</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C25">
@@ -781,7 +771,7 @@
       <c r="A26">
         <v>2010</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C26">
@@ -792,7 +782,7 @@
       <c r="A27">
         <v>2010</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C27">
@@ -803,7 +793,7 @@
       <c r="A28">
         <v>2010</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C28">
@@ -814,7 +804,7 @@
       <c r="A29">
         <v>2010</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C29">
@@ -825,7 +815,7 @@
       <c r="A30">
         <v>2010</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C30">
@@ -836,7 +826,7 @@
       <c r="A31">
         <v>2010</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C31">
@@ -847,7 +837,7 @@
       <c r="A32">
         <v>2010</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C32">
@@ -858,7 +848,7 @@
       <c r="A33">
         <v>2010</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C33">
@@ -869,7 +859,7 @@
       <c r="A34">
         <v>2010</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C34">
@@ -880,7 +870,7 @@
       <c r="A35">
         <v>2010</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C35">
@@ -891,7 +881,7 @@
       <c r="A36">
         <v>2010</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36">
@@ -902,7 +892,7 @@
       <c r="A37">
         <v>2010</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C37">
@@ -913,7 +903,7 @@
       <c r="A38">
         <v>2011</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C38">
@@ -924,7 +914,7 @@
       <c r="A39">
         <v>2011</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C39">
@@ -935,7 +925,7 @@
       <c r="A40">
         <v>2011</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C40">
@@ -946,7 +936,7 @@
       <c r="A41">
         <v>2011</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C41">
@@ -957,7 +947,7 @@
       <c r="A42">
         <v>2011</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42">
@@ -968,7 +958,7 @@
       <c r="A43">
         <v>2011</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C43">
@@ -979,7 +969,7 @@
       <c r="A44">
         <v>2011</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C44">
@@ -990,7 +980,7 @@
       <c r="A45">
         <v>2011</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C45">
@@ -1001,7 +991,7 @@
       <c r="A46">
         <v>2011</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C46">
@@ -1012,7 +1002,7 @@
       <c r="A47">
         <v>2011</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C47">
@@ -1023,7 +1013,7 @@
       <c r="A48">
         <v>2011</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C48">
@@ -1034,7 +1024,7 @@
       <c r="A49">
         <v>2011</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C49">
@@ -1045,7 +1035,7 @@
       <c r="A50">
         <v>2012</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C50">
@@ -1056,7 +1046,7 @@
       <c r="A51">
         <v>2012</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C51">
@@ -1067,7 +1057,7 @@
       <c r="A52">
         <v>2012</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C52">
@@ -1078,7 +1068,7 @@
       <c r="A53">
         <v>2012</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C53">
@@ -1089,7 +1079,7 @@
       <c r="A54">
         <v>2012</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C54">
@@ -1100,7 +1090,7 @@
       <c r="A55">
         <v>2012</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C55">
@@ -1111,7 +1101,7 @@
       <c r="A56">
         <v>2012</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C56">
@@ -1122,7 +1112,7 @@
       <c r="A57">
         <v>2012</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C57">
@@ -1133,7 +1123,7 @@
       <c r="A58">
         <v>2012</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C58">
@@ -1144,7 +1134,7 @@
       <c r="A59">
         <v>2012</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C59">
@@ -1155,7 +1145,7 @@
       <c r="A60">
         <v>2012</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C60">
@@ -1166,7 +1156,7 @@
       <c r="A61">
         <v>2012</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C61">
@@ -1177,7 +1167,7 @@
       <c r="A62">
         <v>2013</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C62">
@@ -1188,7 +1178,7 @@
       <c r="A63">
         <v>2013</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C63">
@@ -1199,7 +1189,7 @@
       <c r="A64">
         <v>2013</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C64">
@@ -1210,7 +1200,7 @@
       <c r="A65">
         <v>2013</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C65">
@@ -1221,7 +1211,7 @@
       <c r="A66">
         <v>2013</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C66">
@@ -1232,7 +1222,7 @@
       <c r="A67">
         <v>2013</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C67">
@@ -1243,7 +1233,7 @@
       <c r="A68">
         <v>2013</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C68">
@@ -1254,7 +1244,7 @@
       <c r="A69">
         <v>2013</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C69">
@@ -1265,7 +1255,7 @@
       <c r="A70">
         <v>2013</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C70">
@@ -1276,7 +1266,7 @@
       <c r="A71">
         <v>2013</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C71">
@@ -1287,7 +1277,7 @@
       <c r="A72">
         <v>2013</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C72">
@@ -1298,7 +1288,7 @@
       <c r="A73">
         <v>2013</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C73">
@@ -1309,7 +1299,7 @@
       <c r="A74">
         <v>2014</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C74">
@@ -1320,7 +1310,7 @@
       <c r="A75">
         <v>2014</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C75">
@@ -1331,7 +1321,7 @@
       <c r="A76">
         <v>2014</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C76">
@@ -1342,7 +1332,7 @@
       <c r="A77">
         <v>2014</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C77">
@@ -1353,7 +1343,7 @@
       <c r="A78">
         <v>2014</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C78">
@@ -1364,7 +1354,7 @@
       <c r="A79">
         <v>2014</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C79">
@@ -1375,7 +1365,7 @@
       <c r="A80">
         <v>2014</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C80">
@@ -1386,7 +1376,7 @@
       <c r="A81">
         <v>2014</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C81">
@@ -1397,7 +1387,7 @@
       <c r="A82">
         <v>2014</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C82">
@@ -1408,7 +1398,7 @@
       <c r="A83">
         <v>2014</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C83">
@@ -1419,7 +1409,7 @@
       <c r="A84">
         <v>2014</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C84">
@@ -1430,7 +1420,7 @@
       <c r="A85">
         <v>2014</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C85">
@@ -1441,7 +1431,7 @@
       <c r="A86">
         <v>2015</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C86">
@@ -1452,7 +1442,7 @@
       <c r="A87">
         <v>2015</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C87">
@@ -1463,7 +1453,7 @@
       <c r="A88">
         <v>2015</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C88">
@@ -1474,7 +1464,7 @@
       <c r="A89">
         <v>2015</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C89">
@@ -1485,7 +1475,7 @@
       <c r="A90">
         <v>2015</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C90">
@@ -1496,7 +1486,7 @@
       <c r="A91">
         <v>2015</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C91">
@@ -1507,7 +1497,7 @@
       <c r="A92">
         <v>2015</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C92">
@@ -1518,7 +1508,7 @@
       <c r="A93">
         <v>2015</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C93">
@@ -1529,7 +1519,7 @@
       <c r="A94">
         <v>2015</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C94">
@@ -1540,7 +1530,7 @@
       <c r="A95">
         <v>2015</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C95">
@@ -1551,7 +1541,7 @@
       <c r="A96">
         <v>2015</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C96">
@@ -1562,7 +1552,7 @@
       <c r="A97">
         <v>2015</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C97">
@@ -1573,7 +1563,7 @@
       <c r="A98">
         <v>2016</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C98">
@@ -1584,7 +1574,7 @@
       <c r="A99">
         <v>2016</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C99">
@@ -1595,7 +1585,7 @@
       <c r="A100">
         <v>2016</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C100">
@@ -1606,7 +1596,7 @@
       <c r="A101">
         <v>2016</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C101">
@@ -1617,7 +1607,7 @@
       <c r="A102">
         <v>2016</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C102">
@@ -1628,7 +1618,7 @@
       <c r="A103">
         <v>2016</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C103">
@@ -1639,7 +1629,7 @@
       <c r="A104">
         <v>2016</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C104">
@@ -1650,7 +1640,7 @@
       <c r="A105">
         <v>2016</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C105">
@@ -1661,7 +1651,7 @@
       <c r="A106">
         <v>2016</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C106">
@@ -1672,7 +1662,7 @@
       <c r="A107">
         <v>2016</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C107">
@@ -1683,7 +1673,7 @@
       <c r="A108">
         <v>2016</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C108">
@@ -1694,7 +1684,7 @@
       <c r="A109">
         <v>2016</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C109">
@@ -1705,7 +1695,7 @@
       <c r="A110">
         <v>2017</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C110">
@@ -1716,7 +1706,7 @@
       <c r="A111">
         <v>2017</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C111">
@@ -1727,7 +1717,7 @@
       <c r="A112">
         <v>2017</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C112">
@@ -1738,7 +1728,7 @@
       <c r="A113">
         <v>2017</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C113">
@@ -1749,7 +1739,7 @@
       <c r="A114">
         <v>2017</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C114">
@@ -1760,7 +1750,7 @@
       <c r="A115">
         <v>2017</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C115">
@@ -1771,7 +1761,7 @@
       <c r="A116">
         <v>2017</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C116">
@@ -1782,7 +1772,7 @@
       <c r="A117">
         <v>2017</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C117">
@@ -1793,7 +1783,7 @@
       <c r="A118">
         <v>2017</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C118">
@@ -1804,7 +1794,7 @@
       <c r="A119">
         <v>2017</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C119">
@@ -1815,7 +1805,7 @@
       <c r="A120">
         <v>2017</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C120">
@@ -1826,7 +1816,7 @@
       <c r="A121">
         <v>2017</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C121">
@@ -1837,7 +1827,7 @@
       <c r="A122">
         <v>2018</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C122" s="2">
@@ -1848,7 +1838,7 @@
       <c r="A123">
         <v>2018</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="2">
@@ -1859,7 +1849,7 @@
       <c r="A124">
         <v>2018</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="2">
@@ -1870,7 +1860,7 @@
       <c r="A125">
         <v>2018</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="2">
@@ -1881,7 +1871,7 @@
       <c r="A126">
         <v>2018</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="2">
@@ -1892,7 +1882,7 @@
       <c r="A127">
         <v>2018</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="2">
@@ -1903,7 +1893,7 @@
       <c r="A128">
         <v>2018</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="2">
@@ -1914,7 +1904,7 @@
       <c r="A129">
         <v>2018</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="2">
@@ -1925,7 +1915,7 @@
       <c r="A130">
         <v>2018</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="2">
@@ -1936,7 +1926,7 @@
       <c r="A131">
         <v>2018</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="2">
@@ -1947,7 +1937,7 @@
       <c r="A132">
         <v>2018</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C132" s="2">
@@ -1958,7 +1948,7 @@
       <c r="A133">
         <v>2018</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C133" s="2">
@@ -1966,10 +1956,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>2019</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="2">
@@ -1977,10 +1967,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>2019</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="2">
@@ -1988,10 +1978,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>2019</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C136" s="2">
@@ -1999,10 +1989,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>2019</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="2">
@@ -2010,10 +2000,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>2019</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="2">
@@ -2021,10 +2011,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>2019</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="2">
@@ -2032,10 +2022,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>2019</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="2">
@@ -2043,10 +2033,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>2019</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C141" s="2">
@@ -2054,10 +2044,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>2019</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C142" s="2">
@@ -2065,10 +2055,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>2019</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="2">
@@ -2076,10 +2066,10 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>2019</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C144" s="2">
@@ -2087,10 +2077,10 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>2019</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="2">
@@ -2098,10 +2088,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>2020</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C146" s="2">
@@ -2109,10 +2099,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>2020</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="2">
@@ -2120,10 +2110,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>2020</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C148" s="2">
@@ -2131,10 +2121,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>2020</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="2">
@@ -2142,10 +2132,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>2020</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="2">
@@ -2153,10 +2143,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>2020</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="2">
@@ -2164,10 +2154,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>2020</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="2">
@@ -2175,10 +2165,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>2020</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="2">
@@ -2186,10 +2176,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>2020</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="2">
@@ -2197,10 +2187,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>2020</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C155" s="2">
@@ -2208,10 +2198,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>2020</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C156" s="2">
@@ -2219,10 +2209,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>2020</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C157" s="2">
@@ -2230,10 +2220,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>2021</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C158" s="2">
@@ -2241,10 +2231,10 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>2021</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C159" s="2">
@@ -2252,10 +2242,10 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>2021</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="2">
@@ -2263,10 +2253,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>2021</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C161" s="2">
@@ -2274,10 +2264,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>2021</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="2">
@@ -2285,10 +2275,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>2021</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="2">
@@ -2296,10 +2286,10 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>2021</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C164" s="2">
@@ -2307,10 +2297,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>2021</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C165" s="2">
@@ -2318,10 +2308,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>2021</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="2">
@@ -2329,10 +2319,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>2021</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="2">
@@ -2340,10 +2330,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>2021</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C168" s="2">
@@ -2351,10 +2341,10 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>2021</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C169" s="2">
@@ -2362,10 +2352,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>2022</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="2">
@@ -2373,10 +2363,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>2022</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C171" s="2">
@@ -2384,10 +2374,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>2022</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C172" s="2">
@@ -2395,234 +2385,234 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>2022</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C173" s="2">
-        <v>19626.701110999998</v>
+        <v>19681.682000000001</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>2022</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="2">
-        <v>19609.540443999998</v>
+        <v>19681.682000000001</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>2022</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="2">
-        <v>19612.448444000001</v>
+        <v>19681.682000000001</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>2022</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C176" s="2">
-        <v>19653.270741</v>
+        <v>19694.757407000001</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>2022</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="3">
-        <v>19682.93</v>
+      <c r="C177" s="2">
+        <v>19707.065852</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>2022</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C178" s="3">
-        <v>19719.28</v>
+      <c r="C178" s="2">
+        <v>19722.84</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>2022</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C179" s="3">
-        <v>19776.72</v>
+      <c r="C179" s="2">
+        <v>19741.84</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>2022</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C180" s="3">
-        <v>19815.62</v>
+      <c r="C180" s="2">
+        <v>19764.71</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>2022</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="3">
-        <v>19850.41</v>
+      <c r="C181" s="2">
+        <v>19791.21</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>2023</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C182" s="3">
-        <v>19873.04</v>
+      <c r="C182" s="2">
+        <v>19822.919999999998</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>2023</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C183" s="3">
-        <v>19905.59</v>
+      <c r="C183" s="2">
+        <v>19855.52</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>2023</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="3">
-        <v>19940.03</v>
+      <c r="C184" s="2">
+        <v>19890.580000000002</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>2023</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="3">
-        <v>19978.14</v>
+      <c r="C185" s="2">
+        <v>19930.12</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>2023</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="3">
-        <v>20015.05</v>
+      <c r="C186" s="2">
+        <v>19968.59</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>2023</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="3">
-        <v>20052.52</v>
+      <c r="C187" s="2">
+        <v>20007.990000000002</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>2023</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C188" s="3">
-        <v>20091.189999999999</v>
+      <c r="C188" s="2">
+        <v>20051.32</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>2023</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C189" s="3">
-        <v>20129.330000000002</v>
+      <c r="C189" s="2">
+        <v>20090.37</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>2023</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C190" s="3">
-        <v>20167.560000000001</v>
+      <c r="C190" s="2">
+        <v>20128.13</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>2023</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C191" s="3">
-        <v>20207.45</v>
+      <c r="C191" s="2">
+        <v>20166.28</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>2023</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C192" s="3">
-        <v>20244.71</v>
+      <c r="C192" s="2">
+        <v>20200.169999999998</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>2023</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C193" s="3">
-        <v>20280.900000000001</v>
+      <c r="C193" s="2">
+        <v>20231.509999999998</v>
       </c>
     </row>
   </sheetData>
